--- a/target/test-classes/testdata/batch14excel.xlsx
+++ b/target/test-classes/testdata/batch14excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzk\IdeaProjects\Put_the_past_behind\Kaan_FrameWork\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0A52A-973A-4AEA-B43D-0BF275FF21E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B67EB2-8AE6-4875-B51A-A49D703BB74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>C:\Users\oguzk\Pictures\Camera Roll\hrms_photo.jpg</t>
   </si>
   <si>
-    <t>vani12346589</t>
+    <t>vani12346590</t>
   </si>
 </sst>
 </file>
